--- a/DailyCheck/etc/mobileserver.xlsx
+++ b/DailyCheck/etc/mobileserver.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19395" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19395" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="113">
   <si>
     <t>MOBH1_CPU</t>
   </si>
@@ -269,13 +270,115 @@
   <si>
     <t xml:space="preserve">", </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBH1_disk1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = param.getString("</t>
+  </si>
+  <si>
+    <t>", "");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBH1_disk2_2</t>
+  </si>
+  <si>
+    <t>MOBH1_disk3_2</t>
+  </si>
+  <si>
+    <t>", "");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBH1_disk4_2</t>
+  </si>
+  <si>
+    <t>DB1_disk1_2</t>
+  </si>
+  <si>
+    <t>DB1_disk2_2</t>
+  </si>
+  <si>
+    <t>DB1_disk3_2</t>
+  </si>
+  <si>
+    <t>DB1_disk4_2</t>
+  </si>
+  <si>
+    <t>MOBH2_disk1_2</t>
+  </si>
+  <si>
+    <t>MOBH2_disk2_2</t>
+  </si>
+  <si>
+    <t>MOBH2_disk3_2</t>
+  </si>
+  <si>
+    <t>MOBH2_disk4_2</t>
+  </si>
+  <si>
+    <t>").trim());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>").trim());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement.setString(75,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement.setString(76,</t>
+  </si>
+  <si>
+    <t>statement.setString(77,</t>
+  </si>
+  <si>
+    <t>statement.setString(78,</t>
+  </si>
+  <si>
+    <t>statement.setString(79,</t>
+  </si>
+  <si>
+    <t>statement.setString(80,</t>
+  </si>
+  <si>
+    <t>statement.setString(81,</t>
+  </si>
+  <si>
+    <t>statement.setString(82,</t>
+  </si>
+  <si>
+    <t>statement.setString(83,</t>
+  </si>
+  <si>
+    <t>statement.setString(84,</t>
+  </si>
+  <si>
+    <t>statement.setString(85,</t>
+  </si>
+  <si>
+    <t>statement.setString(86,</t>
+  </si>
+  <si>
+    <t>$("#</t>
+  </si>
+  <si>
+    <t>").val(data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>).textinput("refresh");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +430,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,6 +513,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -439,6 +548,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,14 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
@@ -630,7 +740,7 @@
     <col min="6" max="6" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -651,7 +761,7 @@
         <v>mobileserver.setMOBH1_CPU(resultSet.getString("MOBH1_CPU").trim());</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -672,7 +782,7 @@
         <v>mobileserver.setMOBH1_memory(resultSet.getString("MOBH1_memory").trim());</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -693,7 +803,7 @@
         <v>mobileserver.setMOBH1_m_val(resultSet.getString("MOBH1_m_val").trim());</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -714,7 +824,7 @@
         <v>mobileserver.setMOBH1_vaccine(resultSet.getString("MOBH1_vaccine").trim());</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -735,7 +845,7 @@
         <v>mobileserver.setMOBH1_update(resultSet.getString("MOBH1_update").trim());</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -756,7 +866,7 @@
         <v>mobileserver.setMOBH1_status(resultSet.getString("MOBH1_status").trim());</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -777,7 +887,7 @@
         <v>mobileserver.setMOBH1_disk1(resultSet.getString("MOBH1_disk1").trim());</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -798,7 +908,7 @@
         <v>mobileserver.setMOBH1_disk2(resultSet.getString("MOBH1_disk2").trim());</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -819,7 +929,7 @@
         <v>mobileserver.setMOBH1_disk3(resultSet.getString("MOBH1_disk3").trim());</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -840,7 +950,7 @@
         <v>mobileserver.setMOBH1_disk4(resultSet.getString("MOBH1_disk4").trim());</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -861,7 +971,7 @@
         <v>mobileserver.setDC2_CPU(resultSet.getString("DC2_CPU").trim());</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -882,7 +992,7 @@
         <v>mobileserver.setDC2_memory(resultSet.getString("DC2_memory").trim());</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -903,7 +1013,7 @@
         <v>mobileserver.setDC2_m_val(resultSet.getString("DC2_m_val").trim());</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -924,7 +1034,7 @@
         <v>mobileserver.setDC2_vaccine(resultSet.getString("DC2_vaccine").trim());</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -945,7 +1055,7 @@
         <v>mobileserver.setDC2_update(resultSet.getString("DC2_update").trim());</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -966,7 +1076,7 @@
         <v>mobileserver.setDC2_status(resultSet.getString("DC2_status").trim());</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -987,7 +1097,7 @@
         <v>mobileserver.setDC2_disk1(resultSet.getString("DC2_disk1").trim());</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1008,7 +1118,7 @@
         <v>mobileserver.setDC2_disk2(resultSet.getString("DC2_disk2").trim());</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1029,7 +1139,7 @@
         <v>mobileserver.setWEB1_CPU(resultSet.getString("WEB1_CPU").trim());</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1050,7 +1160,7 @@
         <v>mobileserver.setWEB1_memory(resultSet.getString("WEB1_memory").trim());</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1071,7 +1181,7 @@
         <v>mobileserver.setWEB1_m_val(resultSet.getString("WEB1_m_val").trim());</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1092,7 +1202,7 @@
         <v>mobileserver.setWEB1_vaccine(resultSet.getString("WEB1_vaccine").trim());</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1113,7 +1223,7 @@
         <v>mobileserver.setWEB1_update(resultSet.getString("WEB1_update").trim());</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1134,7 +1244,7 @@
         <v>mobileserver.setWEB1_status(resultSet.getString("WEB1_status").trim());</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1155,7 +1265,7 @@
         <v>mobileserver.setWEB1_disk1(resultSet.getString("WEB1_disk1").trim());</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1176,7 +1286,7 @@
         <v>mobileserver.setWEB1_disk2(resultSet.getString("WEB1_disk2").trim());</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -1197,7 +1307,7 @@
         <v>mobileserver.setDB1_CPU(resultSet.getString("DB1_CPU").trim());</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1218,7 +1328,7 @@
         <v>mobileserver.setDB1_memory(resultSet.getString("DB1_memory").trim());</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1239,7 +1349,7 @@
         <v>mobileserver.setDB1_m_val(resultSet.getString("DB1_m_val").trim());</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -1260,7 +1370,7 @@
         <v>mobileserver.setDB1_vaccine(resultSet.getString("DB1_vaccine").trim());</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1281,7 +1391,7 @@
         <v>mobileserver.setDB1_update(resultSet.getString("DB1_update").trim());</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1302,7 +1412,7 @@
         <v>mobileserver.setDB1_DB(resultSet.getString("DB1_DB").trim());</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1323,7 +1433,7 @@
         <v>mobileserver.setDB1_status(resultSet.getString("DB1_status").trim());</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1344,7 +1454,7 @@
         <v>mobileserver.setDB1_disk1(resultSet.getString("DB1_disk1").trim());</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1365,7 +1475,7 @@
         <v>mobileserver.setDB1_disk2(resultSet.getString("DB1_disk2").trim());</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1386,7 +1496,7 @@
         <v>mobileserver.setDB1_disk3(resultSet.getString("DB1_disk3").trim());</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -1407,7 +1517,7 @@
         <v>mobileserver.setDB1_disk4(resultSet.getString("DB1_disk4").trim());</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1428,7 +1538,7 @@
         <v>mobileserver.setMOBH2_CPU(resultSet.getString("MOBH2_CPU").trim());</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1449,7 +1559,7 @@
         <v>mobileserver.setMOBH2_memory(resultSet.getString("MOBH2_memory").trim());</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -1470,7 +1580,7 @@
         <v>mobileserver.setMOBH2_m_val(resultSet.getString("MOBH2_m_val").trim());</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1491,7 +1601,7 @@
         <v>mobileserver.setMOBH2_vaccine(resultSet.getString("MOBH2_vaccine").trim());</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -1512,7 +1622,7 @@
         <v>mobileserver.setMOBH2_update(resultSet.getString("MOBH2_update").trim());</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -1533,7 +1643,7 @@
         <v>mobileserver.setMOBH2_status(resultSet.getString("MOBH2_status").trim());</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -1554,7 +1664,7 @@
         <v>mobileserver.setMOBH2_disk1(resultSet.getString("MOBH2_disk1").trim());</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1575,7 +1685,7 @@
         <v>mobileserver.setMOBH2_disk2(resultSet.getString("MOBH2_disk2").trim());</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -1596,7 +1706,7 @@
         <v>mobileserver.setMOBH2_disk3(resultSet.getString("MOBH2_disk3").trim());</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -1617,7 +1727,7 @@
         <v>mobileserver.setMOBH2_disk4(resultSet.getString("MOBH2_disk4").trim());</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -1638,7 +1748,7 @@
         <v>mobileserver.setDC1_CPU(resultSet.getString("DC1_CPU").trim());</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -1659,7 +1769,7 @@
         <v>mobileserver.setDC1_memory(resultSet.getString("DC1_memory").trim());</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -1680,7 +1790,7 @@
         <v>mobileserver.setDC1_m_val(resultSet.getString("DC1_m_val").trim());</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -1701,7 +1811,7 @@
         <v>mobileserver.setDC1_vaccine(resultSet.getString("DC1_vaccine").trim());</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -1722,7 +1832,7 @@
         <v>mobileserver.setDC1_update(resultSet.getString("DC1_update").trim());</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -1743,7 +1853,7 @@
         <v>mobileserver.setDC1_status(resultSet.getString("DC1_status").trim());</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -1764,7 +1874,7 @@
         <v>mobileserver.setDC1_disk1(resultSet.getString("DC1_disk1").trim());</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -1785,7 +1895,7 @@
         <v>mobileserver.setDC1_disk2(resultSet.getString("DC1_disk2").trim());</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -1806,7 +1916,7 @@
         <v>mobileserver.setWEB2_CPU(resultSet.getString("WEB2_CPU").trim());</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -1827,7 +1937,7 @@
         <v>mobileserver.setWEB2_memory(resultSet.getString("WEB2_memory").trim());</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1848,7 +1958,7 @@
         <v>mobileserver.setWEB2_m_val(resultSet.getString("WEB2_m_val").trim());</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -1869,7 +1979,7 @@
         <v>mobileserver.setWEB2_vaccine(resultSet.getString("WEB2_vaccine").trim());</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +2000,7 @@
         <v>mobileserver.setWEB2_update(resultSet.getString("WEB2_update").trim());</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -1911,7 +2021,7 @@
         <v>mobileserver.setWEB2_status(resultSet.getString("WEB2_status").trim());</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -1932,7 +2042,7 @@
         <v>mobileserver.setWEB2_disk1(resultSet.getString("WEB2_disk1").trim());</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -1953,7 +2063,7 @@
         <v>mobileserver.setWEB2_disk2(resultSet.getString("WEB2_disk2").trim());</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -1974,7 +2084,7 @@
         <v>mobileserver.setDB2_CPU(resultSet.getString("DB2_CPU").trim());</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1995,7 +2105,7 @@
         <v>mobileserver.setDB2_memory(resultSet.getString("DB2_memory").trim());</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -2016,7 +2126,7 @@
         <v>mobileserver.setDB2_m_val(resultSet.getString("DB2_m_val").trim());</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2037,7 +2147,7 @@
         <v>mobileserver.setDB2_vaccine(resultSet.getString("DB2_vaccine").trim());</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -2058,7 +2168,7 @@
         <v>mobileserver.setDB2_update(resultSet.getString("DB2_update").trim());</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2079,7 +2189,7 @@
         <v>mobileserver.setDB2_DB(resultSet.getString("DB2_DB").trim());</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2100,7 +2210,7 @@
         <v>mobileserver.setDB2_status(resultSet.getString("DB2_status").trim());</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +2231,7 @@
         <v>mobileserver.setDB2_disk1(resultSet.getString("DB2_disk1").trim());</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2142,7 +2252,7 @@
         <v>mobileserver.setDB2_disk2(resultSet.getString("DB2_disk2").trim());</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2170,16 +2280,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2194,7 +2304,7 @@
         <v>+"[MOBH1_CPU]=?,"</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2209,7 +2319,7 @@
         <v>+"[MOBH1_memory]=?,"</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -2224,7 +2334,7 @@
         <v>+"[MOBH1_m_val]=?,"</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2239,7 +2349,7 @@
         <v>+"[MOBH1_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2254,7 +2364,7 @@
         <v>+"[MOBH1_update]=?,"</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2269,7 +2379,7 @@
         <v>+"[MOBH1_status]=?,"</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2284,7 +2394,7 @@
         <v>+"[MOBH1_disk1]=?,"</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2299,7 +2409,7 @@
         <v>+"[MOBH1_disk2]=?,"</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2314,7 +2424,7 @@
         <v>+"[MOBH1_disk3]=?,"</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -2329,7 +2439,7 @@
         <v>+"[MOBH1_disk4]=?,"</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2344,7 +2454,7 @@
         <v>+"[DC2_CPU]=?,"</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2359,7 +2469,7 @@
         <v>+"[DC2_memory]=?,"</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2374,7 +2484,7 @@
         <v>+"[DC2_m_val]=?,"</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2389,7 +2499,7 @@
         <v>+"[DC2_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2404,7 +2514,7 @@
         <v>+"[DC2_update]=?,"</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2419,7 +2529,7 @@
         <v>+"[DC2_status]=?,"</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -2434,7 +2544,7 @@
         <v>+"[DC2_disk1]=?,"</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2449,7 +2559,7 @@
         <v>+"[DC2_disk2]=?,"</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -2464,7 +2574,7 @@
         <v>+"[WEB1_CPU]=?,"</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -2479,7 +2589,7 @@
         <v>+"[WEB1_memory]=?,"</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2494,7 +2604,7 @@
         <v>+"[WEB1_m_val]=?,"</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2509,7 +2619,7 @@
         <v>+"[WEB1_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2524,7 +2634,7 @@
         <v>+"[WEB1_update]=?,"</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -2539,7 +2649,7 @@
         <v>+"[WEB1_status]=?,"</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -2554,7 +2664,7 @@
         <v>+"[WEB1_disk1]=?,"</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -2569,7 +2679,7 @@
         <v>+"[WEB1_disk2]=?,"</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -2584,7 +2694,7 @@
         <v>+"[DB1_CPU]=?,"</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2599,7 +2709,7 @@
         <v>+"[DB1_memory]=?,"</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2614,7 +2724,7 @@
         <v>+"[DB1_m_val]=?,"</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2629,7 +2739,7 @@
         <v>+"[DB1_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2644,7 +2754,7 @@
         <v>+"[DB1_update]=?,"</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2659,7 +2769,7 @@
         <v>+"[DB1_DB]=?,"</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2674,7 +2784,7 @@
         <v>+"[DB1_status]=?,"</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2689,7 +2799,7 @@
         <v>+"[DB1_disk1]=?,"</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2704,7 +2814,7 @@
         <v>+"[DB1_disk2]=?,"</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2719,7 +2829,7 @@
         <v>+"[DB1_disk3]=?,"</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2734,7 +2844,7 @@
         <v>+"[DB1_disk4]=?,"</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2749,7 +2859,7 @@
         <v>+"[MOBH2_CPU]=?,"</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2764,7 +2874,7 @@
         <v>+"[MOBH2_memory]=?,"</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2779,7 +2889,7 @@
         <v>+"[MOBH2_m_val]=?,"</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2794,7 +2904,7 @@
         <v>+"[MOBH2_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2809,7 +2919,7 @@
         <v>+"[MOBH2_update]=?,"</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -2824,7 +2934,7 @@
         <v>+"[MOBH2_status]=?,"</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -2839,7 +2949,7 @@
         <v>+"[MOBH2_disk1]=?,"</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -2854,7 +2964,7 @@
         <v>+"[MOBH2_disk2]=?,"</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -2869,7 +2979,7 @@
         <v>+"[MOBH2_disk3]=?,"</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -2884,7 +2994,7 @@
         <v>+"[MOBH2_disk4]=?,"</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -2899,7 +3009,7 @@
         <v>+"[DC1_CPU]=?,"</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -2914,7 +3024,7 @@
         <v>+"[DC1_memory]=?,"</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2929,7 +3039,7 @@
         <v>+"[DC1_m_val]=?,"</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -2944,7 +3054,7 @@
         <v>+"[DC1_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -2959,7 +3069,7 @@
         <v>+"[DC1_update]=?,"</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +3084,7 @@
         <v>+"[DC1_status]=?,"</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2989,7 +3099,7 @@
         <v>+"[DC1_disk1]=?,"</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -3004,7 +3114,7 @@
         <v>+"[DC1_disk2]=?,"</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -3019,7 +3129,7 @@
         <v>+"[WEB2_CPU]=?,"</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -3034,7 +3144,7 @@
         <v>+"[WEB2_memory]=?,"</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -3049,7 +3159,7 @@
         <v>+"[WEB2_m_val]=?,"</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -3064,7 +3174,7 @@
         <v>+"[WEB2_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -3079,7 +3189,7 @@
         <v>+"[WEB2_update]=?,"</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3094,7 +3204,7 @@
         <v>+"[WEB2_status]=?,"</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -3109,7 +3219,7 @@
         <v>+"[WEB2_disk1]=?,"</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3124,7 +3234,7 @@
         <v>+"[WEB2_disk2]=?,"</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3139,7 +3249,7 @@
         <v>+"[DB2_CPU]=?,"</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -3154,7 +3264,7 @@
         <v>+"[DB2_memory]=?,"</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3169,7 +3279,7 @@
         <v>+"[DB2_m_val]=?,"</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3184,7 +3294,7 @@
         <v>+"[DB2_vaccine]=?,"</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3199,7 +3309,7 @@
         <v>+"[DB2_update]=?,"</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -3214,7 +3324,7 @@
         <v>+"[DB2_DB]=?,"</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3229,7 +3339,7 @@
         <v>+"[DB2_status]=?,"</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3244,7 +3354,7 @@
         <v>+"[DB2_disk1]=?,"</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -3259,7 +3369,7 @@
         <v>+"[DB2_disk2]=?,"</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -3281,20 +3391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3315,7 +3425,7 @@
         <v>json.put("MOBH1_CPU", MOBH1_CPU);</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -3336,7 +3446,7 @@
         <v>json.put("MOBH1_memory", MOBH1_memory);</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -3353,11 +3463,11 @@
         <v>76</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F2:F65" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3</f>
+        <f t="shared" ref="F3:F65" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3</f>
         <v>json.put("MOBH1_m_val", MOBH1_m_val);</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -3378,7 +3488,7 @@
         <v>json.put("MOBH1_vaccine", MOBH1_vaccine);</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -3399,7 +3509,7 @@
         <v>json.put("MOBH1_update", MOBH1_update);</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -3420,7 +3530,7 @@
         <v>json.put("MOBH1_status", MOBH1_status);</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -3441,7 +3551,7 @@
         <v>json.put("MOBH1_disk1", MOBH1_disk1);</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3462,7 +3572,7 @@
         <v>json.put("MOBH1_disk2", MOBH1_disk2);</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -3483,7 +3593,7 @@
         <v>json.put("MOBH1_disk3", MOBH1_disk3);</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3504,7 +3614,7 @@
         <v>json.put("MOBH1_disk4", MOBH1_disk4);</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -3525,7 +3635,7 @@
         <v>json.put("DC2_CPU", DC2_CPU);</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -3546,7 +3656,7 @@
         <v>json.put("DC2_memory", DC2_memory);</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -3567,7 +3677,7 @@
         <v>json.put("DC2_m_val", DC2_m_val);</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -3588,7 +3698,7 @@
         <v>json.put("DC2_vaccine", DC2_vaccine);</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -3609,7 +3719,7 @@
         <v>json.put("DC2_update", DC2_update);</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -3630,7 +3740,7 @@
         <v>json.put("DC2_status", DC2_status);</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3651,7 +3761,7 @@
         <v>json.put("DC2_disk1", DC2_disk1);</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -3672,7 +3782,7 @@
         <v>json.put("DC2_disk2", DC2_disk2);</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -3693,7 +3803,7 @@
         <v>json.put("WEB1_CPU", WEB1_CPU);</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -3714,7 +3824,7 @@
         <v>json.put("WEB1_memory", WEB1_memory);</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -3735,7 +3845,7 @@
         <v>json.put("WEB1_m_val", WEB1_m_val);</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -3756,7 +3866,7 @@
         <v>json.put("WEB1_vaccine", WEB1_vaccine);</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3777,7 +3887,7 @@
         <v>json.put("WEB1_update", WEB1_update);</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3798,7 +3908,7 @@
         <v>json.put("WEB1_status", WEB1_status);</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -3819,7 +3929,7 @@
         <v>json.put("WEB1_disk1", WEB1_disk1);</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3840,7 +3950,7 @@
         <v>json.put("WEB1_disk2", WEB1_disk2);</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -3861,7 +3971,7 @@
         <v>json.put("DB1_CPU", DB1_CPU);</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3882,7 +3992,7 @@
         <v>json.put("DB1_memory", DB1_memory);</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -3903,7 +4013,7 @@
         <v>json.put("DB1_m_val", DB1_m_val);</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3924,7 +4034,7 @@
         <v>json.put("DB1_vaccine", DB1_vaccine);</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -3945,7 +4055,7 @@
         <v>json.put("DB1_update", DB1_update);</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3966,7 +4076,7 @@
         <v>json.put("DB1_DB", DB1_DB);</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -3987,7 +4097,7 @@
         <v>json.put("DB1_status", DB1_status);</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -4008,7 +4118,7 @@
         <v>json.put("DB1_disk1", DB1_disk1);</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -4029,7 +4139,7 @@
         <v>json.put("DB1_disk2", DB1_disk2);</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -4050,7 +4160,7 @@
         <v>json.put("DB1_disk3", DB1_disk3);</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4071,7 +4181,7 @@
         <v>json.put("DB1_disk4", DB1_disk4);</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -4092,7 +4202,7 @@
         <v>json.put("MOBH2_CPU", MOBH2_CPU);</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4113,7 +4223,7 @@
         <v>json.put("MOBH2_memory", MOBH2_memory);</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -4134,7 +4244,7 @@
         <v>json.put("MOBH2_m_val", MOBH2_m_val);</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -4155,7 +4265,7 @@
         <v>json.put("MOBH2_vaccine", MOBH2_vaccine);</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4176,7 +4286,7 @@
         <v>json.put("MOBH2_update", MOBH2_update);</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -4197,7 +4307,7 @@
         <v>json.put("MOBH2_status", MOBH2_status);</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4218,7 +4328,7 @@
         <v>json.put("MOBH2_disk1", MOBH2_disk1);</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -4239,7 +4349,7 @@
         <v>json.put("MOBH2_disk2", MOBH2_disk2);</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -4260,7 +4370,7 @@
         <v>json.put("MOBH2_disk3", MOBH2_disk3);</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -4281,7 +4391,7 @@
         <v>json.put("MOBH2_disk4", MOBH2_disk4);</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -4302,7 +4412,7 @@
         <v>json.put("DC1_CPU", DC1_CPU);</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -4323,7 +4433,7 @@
         <v>json.put("DC1_memory", DC1_memory);</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -4344,7 +4454,7 @@
         <v>json.put("DC1_m_val", DC1_m_val);</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -4365,7 +4475,7 @@
         <v>json.put("DC1_vaccine", DC1_vaccine);</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -4386,7 +4496,7 @@
         <v>json.put("DC1_update", DC1_update);</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -4407,7 +4517,7 @@
         <v>json.put("DC1_status", DC1_status);</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -4428,7 +4538,7 @@
         <v>json.put("DC1_disk1", DC1_disk1);</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -4449,7 +4559,7 @@
         <v>json.put("DC1_disk2", DC1_disk2);</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -4470,7 +4580,7 @@
         <v>json.put("WEB2_CPU", WEB2_CPU);</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -4491,7 +4601,7 @@
         <v>json.put("WEB2_memory", WEB2_memory);</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -4512,7 +4622,7 @@
         <v>json.put("WEB2_m_val", WEB2_m_val);</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -4533,7 +4643,7 @@
         <v>json.put("WEB2_vaccine", WEB2_vaccine);</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -4554,7 +4664,7 @@
         <v>json.put("WEB2_update", WEB2_update);</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -4575,7 +4685,7 @@
         <v>json.put("WEB2_status", WEB2_status);</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -4596,7 +4706,7 @@
         <v>json.put("WEB2_disk1", WEB2_disk1);</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -4617,7 +4727,7 @@
         <v>json.put("WEB2_disk2", WEB2_disk2);</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -4638,7 +4748,7 @@
         <v>json.put("DB2_CPU", DB2_CPU);</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -4659,7 +4769,7 @@
         <v>json.put("DB2_memory", DB2_memory);</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4680,7 +4790,7 @@
         <v>json.put("DB2_m_val", DB2_m_val);</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4701,7 +4811,7 @@
         <v>json.put("DB2_vaccine", DB2_vaccine);</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4722,7 +4832,7 @@
         <v>json.put("DB2_update", DB2_update);</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -4743,7 +4853,7 @@
         <v>json.put("DB2_DB", DB2_DB);</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -4764,7 +4874,7 @@
         <v>json.put("DB2_status", DB2_status);</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -4785,7 +4895,7 @@
         <v>json.put("DB2_disk1", DB2_disk1);</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -4806,7 +4916,7 @@
         <v>json.put("DB2_disk2", DB2_disk2);</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4825,6 +4935,942 @@
       <c r="F73" t="str">
         <f t="shared" si="1"/>
         <v>json.put("ifany", ifany);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="str">
+        <f>A1&amp;B1&amp;C1&amp;D1</f>
+        <v>MOBH1_disk1_2 = param.getString("MOBH1_disk1_2", "");</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E12" si="0">A2&amp;B2&amp;C2&amp;D2</f>
+        <v>MOBH1_disk2_2 = param.getString("MOBH1_disk2_2", "");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>MOBH1_disk3_2 = param.getString("MOBH1_disk3_2", "");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>MOBH1_disk4_2 = param.getString("MOBH1_disk4_2", "");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1_disk1_2 = param.getString("DB1_disk1_2", "");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1_disk2_2 = param.getString("DB1_disk2_2", "");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1_disk3_2 = param.getString("DB1_disk3_2", "");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1_disk4_2 = param.getString("DB1_disk4_2", "");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>MOBH2_disk1_2 = param.getString("MOBH2_disk1_2", "");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>MOBH2_disk2_2 = param.getString("MOBH2_disk2_2", "");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>MOBH2_disk3_2 = param.getString("MOBH2_disk3_2", "");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>MOBH2_disk4_2 = param.getString("MOBH2_disk4_2", "");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="str">
+        <f>A14&amp;B14&amp;C14&amp;D14&amp;E14</f>
+        <v>mobileserver.setMOBH1_disk1_2(resultSet.getString("MOBH1_disk1_2").trim());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G25" si="1">A15&amp;B15&amp;C15&amp;D15&amp;E15</f>
+        <v>mobileserver.setMOBH1_disk2_2(resultSet.getString("MOBH1_disk2_2").trim());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setMOBH1_disk3_2(resultSet.getString("MOBH1_disk3_2").trim());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setMOBH1_disk4_2(resultSet.getString("MOBH1_disk4_2").trim());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setDB1_disk1_2(resultSet.getString("DB1_disk1_2").trim());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setDB1_disk2_2(resultSet.getString("DB1_disk2_2").trim());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setDB1_disk3_2(resultSet.getString("DB1_disk3_2").trim());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setDB1_disk4_2(resultSet.getString("DB1_disk4_2").trim());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setMOBH2_disk1_2(resultSet.getString("MOBH2_disk1_2").trim());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setMOBH2_disk2_2(resultSet.getString("MOBH2_disk2_2").trim());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setMOBH2_disk3_2(resultSet.getString("MOBH2_disk3_2").trim());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileserver.setMOBH2_disk4_2(resultSet.getString("MOBH2_disk4_2").trim());</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="str">
+        <f>E27&amp;F27&amp;G27</f>
+        <v>statement.setString(75,MOBH1_disk1_2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ref="H28:H38" si="2">E28&amp;F28&amp;G28</f>
+        <v>statement.setString(76,MOBH1_disk2_2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(77,MOBH1_disk3_2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(78,MOBH1_disk4_2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(79,DB1_disk1_2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(80,DB1_disk2_2);</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(81,DB1_disk3_2);</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(82,DB1_disk4_2);</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(83,MOBH2_disk1_2);</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(84,MOBH2_disk2_2);</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(85,MOBH2_disk3_2);</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>statement.setString(86,MOBH2_disk4_2);</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" t="str">
+        <f>G40&amp;H40&amp;I40&amp;J40&amp;K40</f>
+        <v>$("#MOBH1_disk1_2").val(data.MOBH1_disk1_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" ref="L41:L50" si="3">G41&amp;H41&amp;I41&amp;J41&amp;K41</f>
+        <v>$("#MOBH1_disk2_2").val(data.MOBH1_disk2_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" t="s">
+        <v>112</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#MOBH1_disk3_2").val(data.MOBH1_disk3_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s">
+        <v>112</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#MOBH1_disk4_2").val(data.MOBH1_disk4_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" t="s">
+        <v>112</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#DB1_disk1_2").val(data.DB1_disk1_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" t="s">
+        <v>112</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#DB1_disk2_2").val(data.DB1_disk2_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" t="s">
+        <v>112</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#DB1_disk3_2").val(data.DB1_disk3_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" t="s">
+        <v>112</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#DB1_disk4_2").val(data.DB1_disk4_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s">
+        <v>112</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#MOBH2_disk1_2").val(data.MOBH2_disk1_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#MOBH2_disk2_2").val(data.MOBH2_disk2_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="3"/>
+        <v>$("#MOBH2_disk3_2").val(data.MOBH2_disk3_2).textinput("refresh");</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" t="str">
+        <f>G51&amp;H51&amp;I51&amp;J51&amp;K51</f>
+        <v>$("#MOBH2_disk4_2").val(data.MOBH2_disk4_2).textinput("refresh");</v>
       </c>
     </row>
   </sheetData>
